--- a/GB Accounts 2025-26/GB Accounts Self Employed 2026-04-05 (Apr26) Excel 2007/Fixedassets.xlsx
+++ b/GB Accounts 2025-26/GB Accounts Self Employed 2026-04-05 (Apr26) Excel 2007/Fixedassets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2024-25/GB Accounts Self Employed 2025-04-05 (Apr25) Excel 2007/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2025-26/GB Accounts Self Employed 2026-04-05 (Apr26) Excel 2007/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA0FB48-34BC-F647-A8BB-747A2DE2D2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC95629-9D39-164A-9BFA-9D038F901A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27060" windowHeight="16720" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25040" windowHeight="13680" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="11" r:id="rId1"/>
@@ -1099,101 +1099,23 @@
     <xf numFmtId="9" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1206,18 +1128,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="6"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="6"/>
     </xf>
@@ -1239,64 +1277,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1346,7 +1346,7 @@
       <sheetData sheetId="9">
         <row r="4">
           <cell r="B4">
-            <v>45388</v>
+            <v>45753</v>
           </cell>
           <cell r="G4">
             <v>1</v>
@@ -1387,7 +1387,7 @@
         </row>
         <row r="17">
           <cell r="B17">
-            <v>45752</v>
+            <v>46117</v>
           </cell>
           <cell r="G17">
             <v>0.25</v>
@@ -1821,14 +1821,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="149"/>
-      <c r="B1" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="138" t="s">
+      <c r="A1" s="123"/>
+      <c r="B1" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="139"/>
+      <c r="D1" s="146"/>
       <c r="E1" s="62">
         <f>E57+E110</f>
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <f>G57+G110</f>
         <v>0</v>
       </c>
-      <c r="H1" s="151" t="s">
+      <c r="H1" s="125" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="20">
@@ -1856,16 +1856,16 @@
         <f>K57+K110</f>
         <v>0</v>
       </c>
-      <c r="L1" s="128"/>
-      <c r="M1" s="151" t="s">
+      <c r="L1" s="142"/>
+      <c r="M1" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="128"/>
+      <c r="N1" s="142"/>
       <c r="O1" s="20">
         <f>O57+O110</f>
         <v>0</v>
       </c>
-      <c r="P1" s="147" t="s">
+      <c r="P1" s="138" t="s">
         <v>72</v>
       </c>
       <c r="Q1" s="20">
@@ -1880,8 +1880,8 @@
         <f>S57+S110</f>
         <v>0</v>
       </c>
-      <c r="T1" s="128"/>
-      <c r="U1" s="143" t="s">
+      <c r="T1" s="142"/>
+      <c r="U1" s="133" t="s">
         <v>31</v>
       </c>
       <c r="V1" s="20">
@@ -1907,148 +1907,148 @@
       <c r="AA1" s="21"/>
     </row>
     <row r="2" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="144" t="s">
+      <c r="A2" s="124"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="146" t="s">
+      <c r="D2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="135" t="s">
+      <c r="E2" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="119" t="s">
+      <c r="G2" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="153"/>
-      <c r="I2" s="140" t="s">
+      <c r="H2" s="127"/>
+      <c r="I2" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="131" t="s">
+      <c r="J2" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="119" t="s">
+      <c r="K2" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="129"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="119" t="s">
+      <c r="L2" s="148"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="119" t="s">
+      <c r="P2" s="139"/>
+      <c r="Q2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="135" t="s">
+      <c r="R2" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="119" t="s">
+      <c r="S2" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="136"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="137" t="s">
+      <c r="T2" s="143"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="137" t="s">
+      <c r="W2" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="137" t="s">
+      <c r="X2" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="135" t="s">
+      <c r="Y2" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="135" t="s">
+      <c r="Z2" s="132" t="s">
         <v>51</v>
       </c>
       <c r="AA2" s="22"/>
     </row>
     <row r="3" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="150"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="127"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
       <c r="AA3" s="22"/>
     </row>
     <row r="4" spans="1:27" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="150"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="135"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="132"/>
       <c r="F4" s="112">
         <f>[1]Admin!$B$4</f>
-        <v>45388</v>
+        <v>45753</v>
       </c>
       <c r="G4" s="112">
         <f>[1]Admin!$B$4</f>
-        <v>45388</v>
-      </c>
-      <c r="H4" s="153"/>
-      <c r="I4" s="140"/>
+        <v>45753</v>
+      </c>
+      <c r="H4" s="127"/>
+      <c r="I4" s="147"/>
       <c r="J4" s="112">
         <f>[1]Admin!$B$17</f>
-        <v>45752</v>
+        <v>46117</v>
       </c>
       <c r="K4" s="112">
         <f>[1]Admin!$B$17</f>
-        <v>45752</v>
-      </c>
-      <c r="L4" s="130"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="130"/>
+        <v>46117</v>
+      </c>
+      <c r="L4" s="149"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="149"/>
       <c r="O4" s="112">
         <f>[1]Admin!$B$4</f>
-        <v>45388</v>
+        <v>45753</v>
       </c>
       <c r="P4" s="116">
         <f>[1]Admin!$G$4</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="142"/>
+      <c r="Q4" s="151"/>
       <c r="R4" s="15">
         <f>[1]Admin!$G$5</f>
         <v>0.18</v>
       </c>
       <c r="S4" s="112">
         <f>[1]Admin!$B$17</f>
-        <v>45752</v>
-      </c>
-      <c r="T4" s="136"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="135"/>
-      <c r="W4" s="135"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="135"/>
+        <v>46117</v>
+      </c>
+      <c r="T4" s="143"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
       <c r="AA4" s="23"/>
     </row>
     <row r="5" spans="1:27" s="16" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2082,13 +2082,13 @@
     </row>
     <row r="6" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="101"/>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="121"/>
+      <c r="C6" s="154"/>
       <c r="D6" s="113">
         <f>[1]Admin!$B$4</f>
-        <v>45388</v>
+        <v>45753</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -2116,10 +2116,10 @@
     </row>
     <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="101"/>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="123"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="30"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -2300,11 +2300,11 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="101"/>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="126"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="41">
         <f>SUM(E8:E10)</f>
         <v>0</v>
@@ -2405,10 +2405,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="101"/>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="123"/>
+      <c r="C13" s="122"/>
       <c r="D13" s="32"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -2749,11 +2749,11 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A19" s="101"/>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
       <c r="E19" s="41">
         <f>SUM(E14:E18)</f>
         <v>0</v>
@@ -2854,10 +2854,10 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A21" s="101"/>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="123"/>
+      <c r="C21" s="122"/>
       <c r="D21" s="32"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -3198,11 +3198,11 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A27" s="101"/>
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="126"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="119"/>
       <c r="E27" s="41">
         <f>SUM(E22:E26)</f>
         <v>0</v>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A29" s="101"/>
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="123"/>
+      <c r="C29" s="122"/>
       <c r="D29" s="33"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -3647,11 +3647,11 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A35" s="101"/>
-      <c r="B35" s="124" t="s">
+      <c r="B35" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="126"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="41">
         <f>SUM(E30:E34)</f>
         <v>0</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="37" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="101"/>
-      <c r="B37" s="154" t="s">
+      <c r="B37" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="155"/>
+      <c r="C37" s="121"/>
       <c r="D37" s="114">
         <f>[1]Admin!$E$8</f>
         <v>12000</v>
@@ -4109,10 +4109,10 @@
     </row>
     <row r="43" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="101"/>
-      <c r="B43" s="154" t="s">
+      <c r="B43" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="155"/>
+      <c r="C43" s="121"/>
       <c r="D43" s="114">
         <f>[1]Admin!$E$8</f>
         <v>12000</v>
@@ -4463,10 +4463,10 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A49" s="101"/>
-      <c r="B49" s="123" t="s">
+      <c r="B49" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="123"/>
+      <c r="C49" s="122"/>
       <c r="D49" s="32"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -4814,11 +4814,11 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A55" s="101"/>
-      <c r="B55" s="124" t="s">
+      <c r="B55" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="125"/>
-      <c r="D55" s="126"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="17">
         <f>SUM(E38:E54)</f>
         <v>0</v>
@@ -4919,14 +4919,14 @@
     </row>
     <row r="57" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="101"/>
-      <c r="B57" s="117" t="str">
+      <c r="B57" s="152" t="str">
         <f>B6</f>
         <v xml:space="preserve">EXISTING FIXED ASSETS at </v>
       </c>
-      <c r="C57" s="121"/>
+      <c r="C57" s="154"/>
       <c r="D57" s="113">
         <f>D6</f>
-        <v>45388</v>
+        <v>45753</v>
       </c>
       <c r="E57" s="19">
         <f>E11+E19+E27+E35+E55</f>
@@ -5028,17 +5028,17 @@
     </row>
     <row r="59" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="101"/>
-      <c r="B59" s="117" t="s">
+      <c r="B59" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="118"/>
+      <c r="C59" s="153"/>
       <c r="D59" s="113">
         <f>[1]Admin!$B$4</f>
-        <v>45388</v>
+        <v>45753</v>
       </c>
       <c r="E59" s="11"/>
-      <c r="F59" s="133"/>
-      <c r="G59" s="134"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="141"/>
       <c r="H59" s="13"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
@@ -5062,14 +5062,14 @@
     </row>
     <row r="60" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="101"/>
-      <c r="B60" s="123" t="s">
+      <c r="B60" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="123"/>
+      <c r="C60" s="122"/>
       <c r="D60" s="30"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="134"/>
-      <c r="G60" s="134"/>
+      <c r="F60" s="141"/>
+      <c r="G60" s="141"/>
       <c r="H60" s="39">
         <f>H$7</f>
         <v>0</v>
@@ -5237,11 +5237,11 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A64" s="101"/>
-      <c r="B64" s="124" t="s">
+      <c r="B64" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="125"/>
-      <c r="D64" s="126"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="41">
         <f>SUM(E61:E63)</f>
         <v>0</v>
@@ -5342,10 +5342,10 @@
     </row>
     <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="101"/>
-      <c r="B66" s="123" t="s">
+      <c r="B66" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="123"/>
+      <c r="C66" s="122"/>
       <c r="D66" s="32"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -5686,11 +5686,11 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A72" s="101"/>
-      <c r="B72" s="124" t="s">
+      <c r="B72" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="125"/>
-      <c r="D72" s="126"/>
+      <c r="C72" s="118"/>
+      <c r="D72" s="119"/>
       <c r="E72" s="41">
         <f>SUM(E67:E71)</f>
         <v>0</v>
@@ -5791,10 +5791,10 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A74" s="101"/>
-      <c r="B74" s="123" t="s">
+      <c r="B74" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="123"/>
+      <c r="C74" s="122"/>
       <c r="D74" s="32"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -6135,11 +6135,11 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A80" s="101"/>
-      <c r="B80" s="124" t="s">
+      <c r="B80" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="125"/>
-      <c r="D80" s="126"/>
+      <c r="C80" s="118"/>
+      <c r="D80" s="119"/>
       <c r="E80" s="41">
         <f>SUM(E75:E79)</f>
         <v>0</v>
@@ -6240,10 +6240,10 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A82" s="101"/>
-      <c r="B82" s="123" t="s">
+      <c r="B82" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="123"/>
+      <c r="C82" s="122"/>
       <c r="D82" s="33"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -6584,11 +6584,11 @@
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A88" s="101"/>
-      <c r="B88" s="124" t="s">
+      <c r="B88" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="125"/>
-      <c r="D88" s="126"/>
+      <c r="C88" s="118"/>
+      <c r="D88" s="119"/>
       <c r="E88" s="41">
         <f>SUM(E83:E87)</f>
         <v>0</v>
@@ -6689,11 +6689,11 @@
     </row>
     <row r="90" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="101"/>
-      <c r="B90" s="154" t="str">
+      <c r="B90" s="120" t="str">
         <f>B37</f>
         <v>Motor Vehicles - costing over £</v>
       </c>
-      <c r="C90" s="154"/>
+      <c r="C90" s="120"/>
       <c r="D90" s="114">
         <f>D37</f>
         <v>12000</v>
@@ -7032,11 +7032,11 @@
     </row>
     <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="101"/>
-      <c r="B96" s="122" t="str">
+      <c r="B96" s="155" t="str">
         <f>B43</f>
         <v>Motor Vehicles - costing under £</v>
       </c>
-      <c r="C96" s="122"/>
+      <c r="C96" s="155"/>
       <c r="D96" s="114">
         <f>D43</f>
         <v>12000</v>
@@ -7372,10 +7372,10 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A102" s="101"/>
-      <c r="B102" s="123" t="s">
+      <c r="B102" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="C102" s="123"/>
+      <c r="C102" s="122"/>
       <c r="D102" s="33"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -7723,11 +7723,11 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A108" s="101"/>
-      <c r="B108" s="124" t="s">
+      <c r="B108" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="C108" s="125"/>
-      <c r="D108" s="126"/>
+      <c r="C108" s="118"/>
+      <c r="D108" s="119"/>
       <c r="E108" s="17">
         <f>SUM(E91:E107)</f>
         <v>0</v>
@@ -7828,14 +7828,14 @@
     </row>
     <row r="110" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A110" s="101"/>
-      <c r="B110" s="117" t="str">
+      <c r="B110" s="152" t="str">
         <f>B59</f>
         <v xml:space="preserve">NEW FIXED ASSETS Bought AFTER </v>
       </c>
-      <c r="C110" s="118"/>
+      <c r="C110" s="153"/>
       <c r="D110" s="113">
         <f>D59</f>
-        <v>45388</v>
+        <v>45753</v>
       </c>
       <c r="E110" s="19">
         <f>E64+E72+E80+E88+E108</f>
@@ -7937,46 +7937,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="U1:U4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="F59:G60"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="T1:T4"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="O2:O3"/>
     <mergeCell ref="B110:C110"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="B6:C6"/>
@@ -7993,6 +7953,46 @@
     <mergeCell ref="N1:N4"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="F59:G60"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="T1:T4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="U1:U4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B66:C66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8040,20 +8040,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="165"/>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
+      <c r="A1" s="156"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
       <c r="O1" s="71"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -8070,12 +8070,12 @@
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="49"/>
-      <c r="E2" s="173" t="s">
+      <c r="E2" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="174"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="176"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="169"/>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
@@ -8130,20 +8130,20 @@
         <v>3</v>
       </c>
       <c r="F4" s="50"/>
-      <c r="G4" s="162" t="s">
+      <c r="G4" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="163"/>
-      <c r="I4" s="164"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="178"/>
       <c r="J4" s="50"/>
       <c r="K4" s="107" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="50"/>
-      <c r="M4" s="159" t="s">
+      <c r="M4" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="160"/>
+      <c r="N4" s="174"/>
       <c r="O4" s="72"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -8172,8 +8172,8 @@
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
       <c r="L5" s="50"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
+      <c r="M5" s="174"/>
+      <c r="N5" s="174"/>
       <c r="O5" s="72"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -8187,29 +8187,29 @@
     </row>
     <row r="6" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="64"/>
-      <c r="B6" s="156" t="s">
+      <c r="B6" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="158"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="172"/>
       <c r="E6" s="53">
         <f>Schedule!E64</f>
         <v>0</v>
       </c>
       <c r="F6" s="50"/>
-      <c r="G6" s="156" t="s">
+      <c r="G6" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="167"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="160"/>
       <c r="K6" s="53">
         <f>Schedule!V11+Schedule!V64</f>
         <v>0</v>
       </c>
       <c r="L6" s="50"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
+      <c r="M6" s="174"/>
+      <c r="N6" s="174"/>
       <c r="O6" s="72"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -8223,29 +8223,29 @@
     </row>
     <row r="7" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="64"/>
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="158"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="172"/>
       <c r="E7" s="53">
         <f>Schedule!E72</f>
         <v>0</v>
       </c>
       <c r="F7" s="50"/>
-      <c r="G7" s="156" t="s">
+      <c r="G7" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="167"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="160"/>
       <c r="K7" s="53">
         <f>Schedule!V19+Schedule!V72</f>
         <v>0</v>
       </c>
       <c r="L7" s="50"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="174"/>
       <c r="O7" s="72"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -8259,29 +8259,29 @@
     </row>
     <row r="8" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="64"/>
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="157"/>
-      <c r="D8" s="158"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="172"/>
       <c r="E8" s="53">
         <f>Schedule!E80</f>
         <v>0</v>
       </c>
       <c r="F8" s="50"/>
-      <c r="G8" s="156" t="s">
+      <c r="G8" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="157"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="167"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="160"/>
       <c r="K8" s="53">
         <f>Schedule!V27+Schedule!V80</f>
         <v>0</v>
       </c>
       <c r="L8" s="50"/>
-      <c r="M8" s="160"/>
-      <c r="N8" s="160"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
       <c r="O8" s="72"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -8295,29 +8295,29 @@
     </row>
     <row r="9" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="64"/>
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="158"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="172"/>
       <c r="E9" s="53">
         <f>Schedule!E88</f>
         <v>0</v>
       </c>
       <c r="F9" s="50"/>
-      <c r="G9" s="156" t="s">
+      <c r="G9" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="167"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="160"/>
       <c r="K9" s="53">
         <f>Schedule!V35+Schedule!V88</f>
         <v>0</v>
       </c>
       <c r="L9" s="50"/>
-      <c r="M9" s="160"/>
-      <c r="N9" s="160"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="174"/>
       <c r="O9" s="72"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -8331,29 +8331,29 @@
     </row>
     <row r="10" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="64"/>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="157"/>
-      <c r="D10" s="158"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="172"/>
       <c r="E10" s="53">
         <f>Schedule!E108</f>
         <v>0</v>
       </c>
       <c r="F10" s="50"/>
-      <c r="G10" s="156" t="s">
+      <c r="G10" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="167"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="160"/>
       <c r="K10" s="53">
         <f>Schedule!V55+Schedule!V108</f>
         <v>0</v>
       </c>
       <c r="L10" s="50"/>
-      <c r="M10" s="160"/>
-      <c r="N10" s="160"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="174"/>
       <c r="O10" s="72"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -8367,29 +8367,29 @@
     </row>
     <row r="11" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="64"/>
-      <c r="B11" s="177" t="s">
+      <c r="B11" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="177"/>
-      <c r="D11" s="178"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="171"/>
       <c r="E11" s="54">
         <f>SUM(E6:E10)</f>
         <v>0</v>
       </c>
       <c r="F11" s="50"/>
-      <c r="G11" s="171" t="s">
+      <c r="G11" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="172"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="165"/>
       <c r="K11" s="54">
         <f>SUM(K6:K10)</f>
         <v>0</v>
       </c>
       <c r="L11" s="50"/>
-      <c r="M11" s="160"/>
-      <c r="N11" s="160"/>
+      <c r="M11" s="174"/>
+      <c r="N11" s="174"/>
       <c r="O11" s="72"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -8414,8 +8414,8 @@
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
       <c r="L12" s="50"/>
-      <c r="M12" s="160"/>
-      <c r="N12" s="160"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
       <c r="O12" s="72"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -8429,29 +8429,29 @@
     </row>
     <row r="13" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="177"/>
-      <c r="D13" s="178"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="115">
         <f>[2]Mar!$AB$2</f>
         <v>0</v>
       </c>
       <c r="F13" s="50"/>
-      <c r="G13" s="171" t="s">
+      <c r="G13" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="172"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="165"/>
       <c r="K13" s="115">
         <f>[3]Mar!$V$2</f>
         <v>0</v>
       </c>
       <c r="L13" s="50"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
       <c r="O13" s="72"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -8476,8 +8476,8 @@
       <c r="J14" s="50"/>
       <c r="K14" s="50"/>
       <c r="L14" s="50"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
+      <c r="M14" s="175"/>
+      <c r="N14" s="175"/>
       <c r="O14" s="72"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -8491,31 +8491,31 @@
     </row>
     <row r="15" spans="1:24" s="5" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="64"/>
-      <c r="B15" s="168" t="str">
+      <c r="B15" s="161" t="str">
         <f>IF(E15&gt;0,"Purchases exceed Assets listed on Schedule",IF(E15&lt;0,"Assets listed on Schedule exceed Purchase values","Purchases reconcile with Fixed asset Schedule"))</f>
         <v>Purchases reconcile with Fixed asset Schedule</v>
       </c>
-      <c r="C15" s="169"/>
-      <c r="D15" s="170"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="163"/>
       <c r="E15" s="105">
         <f>E13-E11</f>
         <v>0</v>
       </c>
       <c r="F15" s="50"/>
-      <c r="G15" s="168" t="str">
+      <c r="G15" s="161" t="str">
         <f>IF(K15&gt;0,"Sales exceed Assets listed on Schedule",IF(K15&lt;0,"Assets listed on Schedule exceed Sales values","Sales reconcile with Fixed asset Schedule"))</f>
         <v>Sales reconcile with Fixed asset Schedule</v>
       </c>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="170"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="163"/>
       <c r="K15" s="105">
         <f>K13-K11</f>
         <v>0</v>
       </c>
       <c r="L15" s="50"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
       <c r="O15" s="72"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -8555,6 +8555,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="M4:N15"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G15:J15"/>
@@ -8571,10 +8575,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="M4:N15"/>
-    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8629,22 +8629,22 @@
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="91"/>
       <c r="B2" s="81"/>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="185"/>
+      <c r="D2" s="184"/>
       <c r="E2" s="84">
         <f>SUM(E8:E14)</f>
         <v>0</v>
       </c>
       <c r="F2" s="82"/>
-      <c r="G2" s="182" t="s">
+      <c r="G2" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
       <c r="L2" s="88"/>
       <c r="M2" s="91"/>
     </row>
@@ -8657,11 +8657,11 @@
       <c r="D3" s="96"/>
       <c r="E3" s="82"/>
       <c r="F3" s="82"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
       <c r="L3" s="88"/>
       <c r="M3" s="91"/>
     </row>
@@ -8682,46 +8682,46 @@
     </row>
     <row r="5" spans="1:13" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="94"/>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="180" t="s">
+      <c r="E5" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="180" t="s">
+      <c r="F5" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="180" t="s">
+      <c r="G5" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="146" t="s">
+      <c r="H5" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="180" t="s">
+      <c r="I5" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="146" t="s">
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="137" t="s">
         <v>46</v>
       </c>
       <c r="M5" s="94"/>
     </row>
     <row r="6" spans="1:13" s="86" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="94"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
       <c r="I6" s="85" t="s">
         <v>34</v>
       </c>
@@ -8731,7 +8731,7 @@
       <c r="K6" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="179"/>
+      <c r="L6" s="185"/>
       <c r="M6" s="94"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -8956,46 +8956,46 @@
     </row>
     <row r="19" spans="1:13" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="94"/>
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="146" t="s">
+      <c r="C19" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="146" t="s">
+      <c r="D19" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="180" t="s">
+      <c r="E19" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="180" t="s">
+      <c r="F19" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="180" t="s">
+      <c r="G19" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="146" t="s">
+      <c r="H19" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="180" t="s">
+      <c r="I19" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="181"/>
-      <c r="K19" s="181"/>
-      <c r="L19" s="146" t="s">
+      <c r="J19" s="182"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="137" t="s">
         <v>46</v>
       </c>
       <c r="M19" s="94"/>
     </row>
     <row r="20" spans="1:13" s="86" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="94"/>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="185"/>
       <c r="I20" s="85" t="s">
         <v>34</v>
       </c>
@@ -9005,7 +9005,7 @@
       <c r="K20" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="179"/>
+      <c r="L20" s="185"/>
       <c r="M20" s="94"/>
     </row>
     <row r="21" spans="1:13" s="86" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9196,6 +9196,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="G2:K3"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="C2:D2"/>
@@ -9206,16 +9216,6 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
